--- a/biology/Zoologie/Euparkerella/Euparkerella.xlsx
+++ b/biology/Zoologie/Euparkerella/Euparkerella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euparkerella est un genre d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euparkerella est un genre d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 5 espèces de ce genre sont endémiques de la forêt atlantique au Brésil[1]. Elles se rencontrent dans les États d'Espírito Santo et de Rio de Janeiro.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 5 espèces de ce genre sont endémiques de la forêt atlantique au Brésil. Elles se rencontrent dans les États d'Espírito Santo et de Rio de Janeiro.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 juin 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 juin 2015) :
 Euparkerella brasiliensis (Parker, 1926)
 Euparkerella cochranae Izecksohn, 1988
 Euparkerella cryptica Hepp, Carvalho-e-Silva, Carvalho-e-Silva &amp; Folly, 2015
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est formé à partir du préfixe eu-, vrai, de parker, en l'honneur de Hampton Wildman Parker, et du suffixe diminutif -ella[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est formé à partir du préfixe eu-, vrai, de parker, en l'honneur de Hampton Wildman Parker, et du suffixe diminutif -ella.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Griffiths, 1959 : The phylogeny of Sminthillus limbatus and the status of the Brachycephalidae (Amphibia Salientia). Proceedings of the Zoological Society of London, vol. 132, p. 457-487.</t>
         </is>
